--- a/mofset.xlsx
+++ b/mofset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\sciebo2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_Projects\Kranke_Ballmaschine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B08563-F421-4142-8123-88C0701E85B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04E6A02-3703-4986-BBD2-CE10727FDC73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14895" windowHeight="11265" xr2:uid="{4E607B8E-AB35-42A0-BCB5-F893136D0D9F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14895" windowHeight="11265" activeTab="2" xr2:uid="{4E607B8E-AB35-42A0-BCB5-F893136D0D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Motor C" sheetId="1" r:id="rId1"/>
@@ -994,6 +994,356 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="LID4096"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Motor A'!$Y$46:$Y$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Motor A'!$Z$46:$Z$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E36-49CD-AEE1-94AADC8D8BF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2110771296"/>
+        <c:axId val="2049665072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2110771296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2049665072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2049665072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2110771296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1263,7 +1613,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1778,97 +2128,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-1365.106089308639</c:v>
+                  <c:v>-2071.8871527598776</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-356.69220723673391</c:v>
+                  <c:v>-519.96933367033262</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490.54322408296656</c:v>
+                  <c:v>688.66547909907126</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1202.3619414221778</c:v>
+                  <c:v>1629.9512177312442</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1800.4080896636397</c:v>
+                  <c:v>2363.0252880719268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2302.8663514572941</c:v>
+                  <c:v>2933.943948102592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2725.0148856248738</c:v>
+                  <c:v>3378.5758476045512</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3079.6898874124295</c:v>
+                  <c:v>3724.8555191152036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3377.6758963915963</c:v>
+                  <c:v>3994.5383984494083</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3628.0337200324038</c:v>
+                  <c:v>4204.5676360558382</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3838.3759440612639</c:v>
+                  <c:v>4368.1385707716154</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4015.0984069984897</c:v>
+                  <c:v>4495.5277428159852</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4163.5746772803623</c:v>
+                  <c:v>4594.7385297589581</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4288.3194463969312</c:v>
+                  <c:v>4672.0039683192754</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4393.1258063115756</c:v>
+                  <c:v>4732.1783523744061</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4481.1805853323594</c:v>
+                  <c:v>4779.0422097973815</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4555.1612494324545</c:v>
+                  <c:v>4815.5398186561415</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4617.3173154808319</c:v>
+                  <c:v>4843.9641850155776</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4669.5387519008018</c:v>
+                  <c:v>4866.1011037946146</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4713.4134466030428</c:v>
+                  <c:v>4883.3413534745168</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4750.2754896103243</c:v>
+                  <c:v>4896.7680734255719</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4781.2457384950694</c:v>
+                  <c:v>4907.2248134375332</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4807.2659000958147</c:v>
+                  <c:v>4915.3685307472224</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4829.1271648292204</c:v>
+                  <c:v>4921.7108641651212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4847.4942642760734</c:v>
+                  <c:v>4926.6502783974811</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4862.9256835559963</c:v>
+                  <c:v>4930.4970980695562</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4875.8906430849529</c:v>
+                  <c:v>4933.493004242503</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4886.7833660768156</c:v>
+                  <c:v>4935.8262183160023</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4895.9350656183724</c:v>
+                  <c:v>4937.6433272635177</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4903.6240158066303</c:v>
+                  <c:v>4939.0584931347676</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4910.0840131796931</c:v>
+                  <c:v>4940.1606254234739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2004,97 +2354,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-1408.3531902184727</c:v>
+                  <c:v>-2123.385103225261</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-355.82726010999909</c:v>
+                  <c:v>-509.29131141672116</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>474.20422872989559</c:v>
+                  <c:v>647.25742861686922</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1128.7745844405324</c:v>
+                  <c:v>1475.9608130556019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1644.9747001421622</c:v>
+                  <c:v>2069.7527351844224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2052.0547903504785</c:v>
+                  <c:v>2495.2232393555146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2373.0818393637646</c:v>
+                  <c:v>2800.0861773197189</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2626.2466800845195</c:v>
+                  <c:v>3018.5300178045859</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2825.8947682258795</c:v>
+                  <c:v>3175.0518691139791</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2983.339060193995</c:v>
+                  <c:v>3287.2046763661347</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3107.5010559542043</c:v>
+                  <c:v>3367.565674331051</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3205.4163312458613</c:v>
+                  <c:v>3425.1468455218705</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3282.6332048692284</c:v>
+                  <c:v>3466.4055575796024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3343.5271313215294</c:v>
+                  <c:v>3495.9687166029148</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3391.548633679482</c:v>
+                  <c:v>3517.1516456825907</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3429.4188257177843</c:v>
+                  <c:v>3532.3298776178422</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3459.2836024240114</c:v>
+                  <c:v>3543.2055560386016</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3482.8352360362942</c:v>
+                  <c:v>3550.9983201508066</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3501.4082677807942</c:v>
+                  <c:v>3556.5820796331172</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3516.055128965078</c:v>
+                  <c:v>3560.5830181329065</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3527.6057764577909</c:v>
+                  <c:v>3563.4498158396859</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3536.7147217684806</c:v>
+                  <c:v>3565.5039661576739</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3543.8981186062329</c:v>
+                  <c:v>3566.9758291771373</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3549.5630104645761</c:v>
+                  <c:v>3568.0304651154588</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3554.0303955320524</c:v>
+                  <c:v>3568.786144786523</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3557.5534158897512</c:v>
+                  <c:v>3569.3276129316041</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3560.331701677364</c:v>
+                  <c:v>3569.715591811233</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3562.5226830325473</c:v>
+                  <c:v>3569.9935908263287</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3564.2505107888442</c:v>
+                  <c:v>3570.1927858249533</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3565.6130914189193</c:v>
+                  <c:v>3570.335515278377</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3566.6876348545661</c:v>
+                  <c:v>3570.4377854006971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2230,97 +2580,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-1507.7802701516878</c:v>
+                  <c:v>-2227.5711002616458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-353.75908292128179</c:v>
+                  <c:v>-486.49969757064815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>440.824178986101</c:v>
+                  <c:v>569.51348891032251</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>987.92207206605008</c:v>
+                  <c:v>1210.017863571866</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1364.6177803219935</c:v>
+                  <c:v>1598.5034044841595</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1623.9857260101164</c:v>
+                  <c:v>1834.1317959025121</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1802.5694735179848</c:v>
+                  <c:v>1977.047639596512</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1925.5305232704586</c:v>
+                  <c:v>2063.7304805556219</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2010.1934333461033</c:v>
+                  <c:v>2116.3062812683156</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2068.4867575890717</c:v>
+                  <c:v>2148.1951163595058</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2108.6237154169994</c:v>
+                  <c:v>2167.536672544833</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2136.2593907640821</c:v>
+                  <c:v>2179.2679193777881</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2155.2875033371265</c:v>
+                  <c:v>2186.3832802586321</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2168.3890130178247</c:v>
+                  <c:v>2190.698964787784</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2177.4098528543832</c:v>
+                  <c:v>2193.3165597723623</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2183.6210112124713</c:v>
+                  <c:v>2194.9042113852188</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2187.8976072776072</c:v>
+                  <c:v>2195.8671707653584</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2190.8421906950493</c:v>
+                  <c:v>2196.4512351534713</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2192.8696376108246</c:v>
+                  <c:v>2196.8054881121079</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2194.265604514645</c:v>
+                  <c:v>2197.0203533928147</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2195.2267757203608</c:v>
+                  <c:v>2197.1506757732714</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2195.8885751399384</c:v>
+                  <c:v>2197.2297202926648</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2196.3442467925524</c:v>
+                  <c:v>2197.2776632171594</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2196.6579923910722</c:v>
+                  <c:v>2197.3067420707816</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2196.8740170220235</c:v>
+                  <c:v>2197.324379287053</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2197.0227574072196</c:v>
+                  <c:v>2197.3350767994734</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2197.1251702760251</c:v>
+                  <c:v>2197.3415651687387</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2197.1956850570859</c:v>
+                  <c:v>2197.3455005636301</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2197.2442369080986</c:v>
+                  <c:v>2197.3478875012897</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2197.277666526702</c:v>
+                  <c:v>2197.3493352521627</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2197.3006839683985</c:v>
+                  <c:v>2197.3502133574552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2649,7 +2999,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3271,6 +3621,356 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="LID4096"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Motor B'!$T$60:$T$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Motor B'!$U$60:$U$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F74D-4CEB-8654-EF7525C243BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2058263584"/>
+        <c:axId val="2046130912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2058263584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046130912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2046130912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2058263584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -8117,7 +8817,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0715223097112861E-2"/>
+          <c:y val="0.18560185185185185"/>
+          <c:w val="0.91606255468066489"/>
+          <c:h val="0.77736111111111106"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -9305,97 +10015,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-1339.6742753483554</c:v>
+                  <c:v>-1499.0397975199724</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-350.04706080703647</c:v>
+                  <c:v>-387.95578383113781</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>481.40444423862937</c:v>
+                  <c:v>528.74737822747795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1179.9620375270449</c:v>
+                  <c:v>1285.0760419243779</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1766.8666353052429</c:v>
+                  <c:v>1909.087249919929</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2259.9641410837989</c:v>
+                  <c:v>2423.9295485057673</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2674.2480828445032</c:v>
+                  <c:v>2848.7017144810911</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3022.3155185736632</c:v>
+                  <c:v>3199.1612503097822</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3314.7500727593324</c:v>
+                  <c:v>3488.3089301518639</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3560.4437507749753</c:v>
+                  <c:v>3726.8710813011121</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3766.8673165021914</c:v>
+                  <c:v>3923.6974919160589</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3940.2974545166717</c:v>
+                  <c:v>4086.0897059740491</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4086.0076241175061</c:v>
+                  <c:v>4220.0718839971332</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4208.4284084642923</c:v>
+                  <c:v>4330.6142774975924</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4311.282234529679</c:v>
+                  <c:v>4421.8176072322767</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4397.6965602729406</c:v>
+                  <c:v>4497.0651850283812</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4470.2989706967928</c:v>
+                  <c:v>4559.1484223471571</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4531.2970743562937</c:v>
+                  <c:v>4610.3703814967685</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4582.5456297187593</c:v>
+                  <c:v>4652.6312108677121</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4625.6029424739345</c:v>
+                  <c:v>4687.498633527267</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4661.7782486573897</c:v>
+                  <c:v>4716.2661040434978</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4692.1715243573335</c:v>
+                  <c:v>4740.0007909454389</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4717.7069324914955</c:v>
+                  <c:v>4759.5831647942387</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4739.1609236642671</c:v>
+                  <c:v>4775.7396604387141</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4757.1858455618576</c:v>
+                  <c:v>4789.0696251061963</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4772.3297787721303</c:v>
+                  <c:v>4800.0675520048471</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4785.0532021733634</c:v>
+                  <c:v>4809.1414242232149</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4795.7429946334387</c:v>
+                  <c:v>4816.627849418981</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4804.7241987666284</c:v>
+                  <c:v>4822.8045467388265</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4812.2699044464416</c:v>
+                  <c:v>4827.9006491887058</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4818.609552600743</c:v>
+                  <c:v>4832.1052036350147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9531,97 +10241,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-1382.1156863317619</c:v>
+                  <c:v>-1560.9363670838216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-349.19822757400186</c:v>
+                  <c:v>-388.97367762881515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>465.3698430226674</c:v>
+                  <c:v>511.8209018883025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1107.7456069424345</c:v>
+                  <c:v>1204.1901059495324</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1614.3289570229765</c:v>
+                  <c:v>1736.3592881723605</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2013.8251786937522</c:v>
+                  <c:v>2145.3954452494286</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2328.871520236266</c:v>
+                  <c:v>2459.7890316978824</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2577.3199208349524</c:v>
+                  <c:v>2701.438395671586</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2773.248581545065</c:v>
+                  <c:v>2887.1750570600957</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2927.7596993270854</c:v>
+                  <c:v>3029.9360675442945</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3049.6085673371203</c:v>
+                  <c:v>3139.665110599713</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3145.6996891182266</c:v>
+                  <c:v>3224.0051054555956</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3221.4780187485921</c:v>
+                  <c:v>3288.8305567146372</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3281.2374963686925</c:v>
+                  <c:v>3338.6567291980377</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3328.3643620946464</c:v>
+                  <c:v>3376.9541481303795</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3365.5290355757452</c:v>
+                  <c:v>3406.3903304373371</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3394.8374339527668</c:v>
+                  <c:v>3429.0155843830203</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3417.9503025714862</c:v>
+                  <c:v>3446.405818985068</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3436.1773202649879</c:v>
+                  <c:v>3459.7723102624827</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3450.5513116322968</c:v>
+                  <c:v>3470.0460698268394</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3461.8867715139836</c:v>
+                  <c:v>3477.9426923132933</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3470.8260179241038</c:v>
+                  <c:v>3484.012198447143</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3477.8755886706745</c:v>
+                  <c:v>3488.6773454479066</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3483.4349440604788</c:v>
+                  <c:v>3492.2630731922704</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3487.8191021122566</c:v>
+                  <c:v>3495.0191371393653</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3491.2764888909851</c:v>
+                  <c:v>3497.1375044617075</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3494.003015443303</c:v>
+                  <c:v>3498.7657250685252</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3496.1531789963747</c:v>
+                  <c:v>3500.0172088487479</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3497.8488174639429</c:v>
+                  <c:v>3500.9791249709265</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3499.1860133291552</c:v>
+                  <c:v>3501.7184734472944</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3500.2405381091371</c:v>
+                  <c:v>3502.2867518625362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9757,97 +10467,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-1479.6904479585248</c:v>
+                  <c:v>-1918.3406277910717</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-347.16858035589439</c:v>
+                  <c:v>-429.98076298111852</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>432.61166085511309</c:v>
+                  <c:v>514.73544770279341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>969.51716526736607</c:v>
+                  <c:v>1114.3812321871326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1339.1950635178948</c:v>
+                  <c:v>1494.9982500633578</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1593.7310057495379</c:v>
+                  <c:v>1736.5897329778425</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1768.9877527564779</c:v>
+                  <c:v>1889.9366456894547</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1889.6580482839449</c:v>
+                  <c:v>1987.2715159195714</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1972.7436953210295</c:v>
+                  <c:v>2049.0535028874529</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2029.9510197366697</c:v>
+                  <c:v>2088.2687800504609</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2069.3402293475133</c:v>
+                  <c:v>2113.1601446446593</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2096.4610543400349</c:v>
+                  <c:v>2128.9596002697181</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2115.1346747437428</c:v>
+                  <c:v>2138.9880901543734</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2127.992104378643</c:v>
+                  <c:v>2145.3535379111386</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2136.8448867123557</c:v>
+                  <c:v>2149.3939194252189</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2142.9403317020265</c:v>
+                  <c:v>2151.9584967186188</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2147.1372551348563</c:v>
+                  <c:v>2153.5863273259274</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2150.0269812058627</c:v>
+                  <c:v>2154.6195706962517</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2152.0166569526573</c:v>
+                  <c:v>2155.2754078930247</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2153.3866171080858</c:v>
+                  <c:v>2155.6916916467126</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2154.329881773439</c:v>
+                  <c:v>2155.9559221057916</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2154.9793519243613</c:v>
+                  <c:v>2156.1236388011621</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2155.4265344516339</c:v>
+                  <c:v>2156.230094695778</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2155.7344349955056</c:v>
+                  <c:v>2156.2976661291018</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2155.9464351053825</c:v>
+                  <c:v>2156.3405561787122</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2156.0924044694589</c:v>
+                  <c:v>2156.36778005521</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2156.192909394957</c:v>
+                  <c:v>2156.3850600410883</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2156.262110491457</c:v>
+                  <c:v>2156.3960282774437</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2156.309757825486</c:v>
+                  <c:v>2156.4029902165103</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2156.3425646530491</c:v>
+                  <c:v>2156.4074092127821</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2156.3651532817039</c:v>
+                  <c:v>2156.4102141106509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10336,6 +11046,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12205,6 +12995,1038 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17187,6 +19009,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>122144</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FA244B-45A4-44D9-A28C-663955C6F0D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17232,16 +19090,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>537881</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>25468</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>448234</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>36674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>509306</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>75743</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419659</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>64537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17299,6 +19157,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>599514</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>45944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>599514</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>122144</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59631960-9730-4250-9C0E-0C38706105CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17606,8 +19500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CD511A-6204-4BB8-AE8B-AD2A33E3DC9D}">
   <dimension ref="A1:AQ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X87" sqref="X87"/>
+    <sheetView topLeftCell="M39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q66" sqref="Q66:R70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20806,8 +22700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C63A95C-2799-4C3B-9E23-A269E3458E4D}">
   <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="G28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20906,21 +22800,21 @@
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T33" si="3">(1-EXP(-(S3+$R$6)/$R$8))*$R$7</f>
-        <v>-1339.6742753483554</v>
+        <v>-1499.0397975199724</v>
       </c>
       <c r="X3">
         <v>0.5</v>
       </c>
       <c r="Y3">
         <f>(1-EXP(-(X3+$W$6)/$W$8))*$W$7</f>
-        <v>-1382.1156863317619</v>
+        <v>-1560.9363670838216</v>
       </c>
       <c r="AC3">
         <v>0.5</v>
       </c>
       <c r="AD3">
         <f>(1-EXP(-(AC3+$AB$6)/$AB$8))*$AB$7</f>
-        <v>-1479.6904479585248</v>
+        <v>-1918.3406277910717</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -20953,21 +22847,21 @@
       </c>
       <c r="T4">
         <f t="shared" si="3"/>
-        <v>-350.04706080703647</v>
+        <v>-387.95578383113781</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
         <f t="shared" ref="Y4:Y33" si="4">(1-EXP(-(X4+$W$6)/$W$8))*$W$7</f>
-        <v>-349.19822757400186</v>
+        <v>-388.97367762881515</v>
       </c>
       <c r="AC4">
         <v>1</v>
       </c>
       <c r="AD4">
         <f t="shared" ref="AD4:AD33" si="5">(1-EXP(-(AC4+$AB$6)/$AB$8))*$AB$7</f>
-        <v>-347.16858035589439</v>
+        <v>-429.98076298111852</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -21003,7 +22897,7 @@
       </c>
       <c r="T5">
         <f t="shared" si="3"/>
-        <v>481.40444423862937</v>
+        <v>528.74737822747795</v>
       </c>
       <c r="V5" t="s">
         <v>12</v>
@@ -21013,7 +22907,7 @@
       </c>
       <c r="Y5">
         <f t="shared" si="4"/>
-        <v>465.3698430226674</v>
+        <v>511.8209018883025</v>
       </c>
       <c r="AA5" t="s">
         <v>13</v>
@@ -21023,7 +22917,7 @@
       </c>
       <c r="AD5">
         <f t="shared" si="5"/>
-        <v>432.61166085511309</v>
+        <v>514.73544770279341</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -21062,7 +22956,7 @@
       </c>
       <c r="T6">
         <f t="shared" si="3"/>
-        <v>1179.9620375270449</v>
+        <v>1285.0760419243779</v>
       </c>
       <c r="V6" t="s">
         <v>10</v>
@@ -21075,7 +22969,7 @@
       </c>
       <c r="Y6">
         <f t="shared" si="4"/>
-        <v>1107.7456069424345</v>
+        <v>1204.1901059495324</v>
       </c>
       <c r="AA6" t="s">
         <v>10</v>
@@ -21088,7 +22982,7 @@
       </c>
       <c r="AD6">
         <f t="shared" si="5"/>
-        <v>969.51716526736607</v>
+        <v>1114.3812321871326</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -21127,7 +23021,7 @@
       </c>
       <c r="T7">
         <f t="shared" si="3"/>
-        <v>1766.8666353052429</v>
+        <v>1909.087249919929</v>
       </c>
       <c r="V7" t="s">
         <v>9</v>
@@ -21140,7 +23034,7 @@
       </c>
       <c r="Y7">
         <f t="shared" si="4"/>
-        <v>1614.3289570229765</v>
+        <v>1736.3592881723605</v>
       </c>
       <c r="AA7" t="s">
         <v>9</v>
@@ -21153,7 +23047,7 @@
       </c>
       <c r="AD7">
         <f t="shared" si="5"/>
-        <v>1339.1950635178948</v>
+        <v>1494.9982500633578</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -21185,40 +23079,40 @@
         <v>8</v>
       </c>
       <c r="R8">
-        <v>2.871</v>
+        <v>2.6</v>
       </c>
       <c r="S8">
         <v>3</v>
       </c>
       <c r="T8">
         <f t="shared" si="3"/>
-        <v>2259.9641410837989</v>
+        <v>2423.9295485057673</v>
       </c>
       <c r="V8" t="s">
         <v>8</v>
       </c>
       <c r="W8">
-        <v>2.1053999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="X8">
         <v>3</v>
       </c>
       <c r="Y8">
         <f t="shared" si="4"/>
-        <v>2013.8251786937522</v>
+        <v>2145.3954452494286</v>
       </c>
       <c r="AA8" t="s">
         <v>8</v>
       </c>
       <c r="AB8">
-        <v>1.3397999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC8">
         <v>3</v>
       </c>
       <c r="AD8">
         <f t="shared" si="5"/>
-        <v>1593.7310057495379</v>
+        <v>1736.5897329778425</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -21251,21 +23145,21 @@
       </c>
       <c r="T9">
         <f t="shared" si="3"/>
-        <v>2674.2480828445032</v>
+        <v>2848.7017144810911</v>
       </c>
       <c r="X9">
         <v>3.5</v>
       </c>
       <c r="Y9">
         <f t="shared" si="4"/>
-        <v>2328.871520236266</v>
+        <v>2459.7890316978824</v>
       </c>
       <c r="AC9">
         <v>3.5</v>
       </c>
       <c r="AD9">
         <f t="shared" si="5"/>
-        <v>1768.9877527564779</v>
+        <v>1889.9366456894547</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -21298,21 +23192,21 @@
       </c>
       <c r="T10">
         <f t="shared" si="3"/>
-        <v>3022.3155185736632</v>
+        <v>3199.1612503097822</v>
       </c>
       <c r="X10">
         <v>4</v>
       </c>
       <c r="Y10">
         <f t="shared" si="4"/>
-        <v>2577.3199208349524</v>
+        <v>2701.438395671586</v>
       </c>
       <c r="AC10">
         <v>4</v>
       </c>
       <c r="AD10">
         <f t="shared" si="5"/>
-        <v>1889.6580482839449</v>
+        <v>1987.2715159195714</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -21345,21 +23239,21 @@
       </c>
       <c r="T11">
         <f t="shared" si="3"/>
-        <v>3314.7500727593324</v>
+        <v>3488.3089301518639</v>
       </c>
       <c r="X11">
         <v>4.5</v>
       </c>
       <c r="Y11">
         <f t="shared" si="4"/>
-        <v>2773.248581545065</v>
+        <v>2887.1750570600957</v>
       </c>
       <c r="AC11">
         <v>4.5</v>
       </c>
       <c r="AD11">
         <f t="shared" si="5"/>
-        <v>1972.7436953210295</v>
+        <v>2049.0535028874529</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -21392,21 +23286,21 @@
       </c>
       <c r="T12">
         <f t="shared" si="3"/>
-        <v>3560.4437507749753</v>
+        <v>3726.8710813011121</v>
       </c>
       <c r="X12">
         <v>5</v>
       </c>
       <c r="Y12">
         <f t="shared" si="4"/>
-        <v>2927.7596993270854</v>
+        <v>3029.9360675442945</v>
       </c>
       <c r="AC12">
         <v>5</v>
       </c>
       <c r="AD12">
         <f t="shared" si="5"/>
-        <v>2029.9510197366697</v>
+        <v>2088.2687800504609</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -21415,21 +23309,21 @@
       </c>
       <c r="T13">
         <f t="shared" si="3"/>
-        <v>3766.8673165021914</v>
+        <v>3923.6974919160589</v>
       </c>
       <c r="X13">
         <v>5.5</v>
       </c>
       <c r="Y13">
         <f t="shared" si="4"/>
-        <v>3049.6085673371203</v>
+        <v>3139.665110599713</v>
       </c>
       <c r="AC13">
         <v>5.5</v>
       </c>
       <c r="AD13">
         <f t="shared" si="5"/>
-        <v>2069.3402293475133</v>
+        <v>2113.1601446446593</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -21438,21 +23332,21 @@
       </c>
       <c r="T14">
         <f t="shared" si="3"/>
-        <v>3940.2974545166717</v>
+        <v>4086.0897059740491</v>
       </c>
       <c r="X14">
         <v>6</v>
       </c>
       <c r="Y14">
         <f t="shared" si="4"/>
-        <v>3145.6996891182266</v>
+        <v>3224.0051054555956</v>
       </c>
       <c r="AC14">
         <v>6</v>
       </c>
       <c r="AD14">
         <f t="shared" si="5"/>
-        <v>2096.4610543400349</v>
+        <v>2128.9596002697181</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -21473,21 +23367,21 @@
       </c>
       <c r="T15">
         <f t="shared" si="3"/>
-        <v>4086.0076241175061</v>
+        <v>4220.0718839971332</v>
       </c>
       <c r="X15">
         <v>6.5</v>
       </c>
       <c r="Y15">
         <f t="shared" si="4"/>
-        <v>3221.4780187485921</v>
+        <v>3288.8305567146372</v>
       </c>
       <c r="AC15">
         <v>6.5</v>
       </c>
       <c r="AD15">
         <f t="shared" si="5"/>
-        <v>2115.1346747437428</v>
+        <v>2138.9880901543734</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -21508,21 +23402,21 @@
       </c>
       <c r="T16">
         <f t="shared" si="3"/>
-        <v>4208.4284084642923</v>
+        <v>4330.6142774975924</v>
       </c>
       <c r="X16">
         <v>7</v>
       </c>
       <c r="Y16">
         <f t="shared" si="4"/>
-        <v>3281.2374963686925</v>
+        <v>3338.6567291980377</v>
       </c>
       <c r="AC16">
         <v>7</v>
       </c>
       <c r="AD16">
         <f t="shared" si="5"/>
-        <v>2127.992104378643</v>
+        <v>2145.3535379111386</v>
       </c>
     </row>
     <row r="17" spans="17:30" x14ac:dyDescent="0.25">
@@ -21531,21 +23425,21 @@
       </c>
       <c r="T17">
         <f t="shared" si="3"/>
-        <v>4311.282234529679</v>
+        <v>4421.8176072322767</v>
       </c>
       <c r="X17">
         <v>7.5</v>
       </c>
       <c r="Y17">
         <f t="shared" si="4"/>
-        <v>3328.3643620946464</v>
+        <v>3376.9541481303795</v>
       </c>
       <c r="AC17">
         <v>7.5</v>
       </c>
       <c r="AD17">
         <f t="shared" si="5"/>
-        <v>2136.8448867123557</v>
+        <v>2149.3939194252189</v>
       </c>
     </row>
     <row r="18" spans="17:30" x14ac:dyDescent="0.25">
@@ -21554,21 +23448,21 @@
       </c>
       <c r="T18">
         <f t="shared" si="3"/>
-        <v>4397.6965602729406</v>
+        <v>4497.0651850283812</v>
       </c>
       <c r="X18">
         <v>8</v>
       </c>
       <c r="Y18">
         <f t="shared" si="4"/>
-        <v>3365.5290355757452</v>
+        <v>3406.3903304373371</v>
       </c>
       <c r="AC18">
         <v>8</v>
       </c>
       <c r="AD18">
         <f t="shared" si="5"/>
-        <v>2142.9403317020265</v>
+        <v>2151.9584967186188</v>
       </c>
     </row>
     <row r="19" spans="17:30" x14ac:dyDescent="0.25">
@@ -21580,21 +23474,21 @@
       </c>
       <c r="T19">
         <f t="shared" si="3"/>
-        <v>4470.2989706967928</v>
+        <v>4559.1484223471571</v>
       </c>
       <c r="X19">
         <v>8.5</v>
       </c>
       <c r="Y19">
         <f t="shared" si="4"/>
-        <v>3394.8374339527668</v>
+        <v>3429.0155843830203</v>
       </c>
       <c r="AC19">
         <v>8.5</v>
       </c>
       <c r="AD19">
         <f t="shared" si="5"/>
-        <v>2147.1372551348563</v>
+        <v>2153.5863273259274</v>
       </c>
     </row>
     <row r="20" spans="17:30" x14ac:dyDescent="0.25">
@@ -21606,21 +23500,21 @@
       </c>
       <c r="T20">
         <f t="shared" si="3"/>
-        <v>4531.2970743562937</v>
+        <v>4610.3703814967685</v>
       </c>
       <c r="X20">
         <v>9</v>
       </c>
       <c r="Y20">
         <f t="shared" si="4"/>
-        <v>3417.9503025714862</v>
+        <v>3446.405818985068</v>
       </c>
       <c r="AC20">
         <v>9</v>
       </c>
       <c r="AD20">
         <f t="shared" si="5"/>
-        <v>2150.0269812058627</v>
+        <v>2154.6195706962517</v>
       </c>
     </row>
     <row r="21" spans="17:30" x14ac:dyDescent="0.25">
@@ -21632,21 +23526,21 @@
       </c>
       <c r="T21">
         <f t="shared" si="3"/>
-        <v>4582.5456297187593</v>
+        <v>4652.6312108677121</v>
       </c>
       <c r="X21">
         <v>9.5</v>
       </c>
       <c r="Y21">
         <f t="shared" si="4"/>
-        <v>3436.1773202649879</v>
+        <v>3459.7723102624827</v>
       </c>
       <c r="AC21">
         <v>9.5</v>
       </c>
       <c r="AD21">
         <f t="shared" si="5"/>
-        <v>2152.0166569526573</v>
+        <v>2155.2754078930247</v>
       </c>
     </row>
     <row r="22" spans="17:30" x14ac:dyDescent="0.25">
@@ -21658,21 +23552,21 @@
       </c>
       <c r="T22">
         <f t="shared" si="3"/>
-        <v>4625.6029424739345</v>
+        <v>4687.498633527267</v>
       </c>
       <c r="X22">
         <v>10</v>
       </c>
       <c r="Y22">
         <f t="shared" si="4"/>
-        <v>3450.5513116322968</v>
+        <v>3470.0460698268394</v>
       </c>
       <c r="AC22">
         <v>10</v>
       </c>
       <c r="AD22">
         <f>(1-EXP(-(AC22+$AB$6)/$AB$8))*$AB$7</f>
-        <v>2153.3866171080858</v>
+        <v>2155.6916916467126</v>
       </c>
     </row>
     <row r="23" spans="17:30" x14ac:dyDescent="0.25">
@@ -21684,21 +23578,21 @@
       </c>
       <c r="T23">
         <f t="shared" si="3"/>
-        <v>4661.7782486573897</v>
+        <v>4716.2661040434978</v>
       </c>
       <c r="X23">
         <v>10.5</v>
       </c>
       <c r="Y23">
         <f t="shared" si="4"/>
-        <v>3461.8867715139836</v>
+        <v>3477.9426923132933</v>
       </c>
       <c r="AC23">
         <v>10.5</v>
       </c>
       <c r="AD23">
         <f>(1-EXP(-(AC23+$AB$6)/$AB$8))*$AB$7</f>
-        <v>2154.329881773439</v>
+        <v>2155.9559221057916</v>
       </c>
     </row>
     <row r="24" spans="17:30" x14ac:dyDescent="0.25">
@@ -21707,21 +23601,21 @@
       </c>
       <c r="T24">
         <f t="shared" si="3"/>
-        <v>4692.1715243573335</v>
+        <v>4740.0007909454389</v>
       </c>
       <c r="X24">
         <v>11</v>
       </c>
       <c r="Y24">
         <f t="shared" si="4"/>
-        <v>3470.8260179241038</v>
+        <v>3484.012198447143</v>
       </c>
       <c r="AC24">
         <v>11</v>
       </c>
       <c r="AD24">
         <f>(1-EXP(-(AC24+$AB$6)/$AB$8))*$AB$7</f>
-        <v>2154.9793519243613</v>
+        <v>2156.1236388011621</v>
       </c>
     </row>
     <row r="25" spans="17:30" x14ac:dyDescent="0.25">
@@ -21730,21 +23624,21 @@
       </c>
       <c r="T25">
         <f t="shared" si="3"/>
-        <v>4717.7069324914955</v>
+        <v>4759.5831647942387</v>
       </c>
       <c r="X25">
         <v>11.5</v>
       </c>
       <c r="Y25">
         <f t="shared" si="4"/>
-        <v>3477.8755886706745</v>
+        <v>3488.6773454479066</v>
       </c>
       <c r="AC25">
         <v>11.5</v>
       </c>
       <c r="AD25">
         <f>(1-EXP(-(AC25+$AB$6)/$AB$8))*$AB$7</f>
-        <v>2155.4265344516339</v>
+        <v>2156.230094695778</v>
       </c>
     </row>
     <row r="26" spans="17:30" x14ac:dyDescent="0.25">
@@ -21757,21 +23651,21 @@
       </c>
       <c r="T26">
         <f t="shared" si="3"/>
-        <v>4739.1609236642671</v>
+        <v>4775.7396604387141</v>
       </c>
       <c r="X26">
         <v>12</v>
       </c>
       <c r="Y26">
         <f t="shared" si="4"/>
-        <v>3483.4349440604788</v>
+        <v>3492.2630731922704</v>
       </c>
       <c r="AC26">
         <v>12</v>
       </c>
       <c r="AD26">
         <f>(1-EXP(-(AC26+$AB$6)/$AB$8))*$AB$7</f>
-        <v>2155.7344349955056</v>
+        <v>2156.2976661291018</v>
       </c>
     </row>
     <row r="27" spans="17:30" x14ac:dyDescent="0.25">
@@ -21784,21 +23678,21 @@
       </c>
       <c r="T27">
         <f t="shared" si="3"/>
-        <v>4757.1858455618576</v>
+        <v>4789.0696251061963</v>
       </c>
       <c r="X27">
         <v>12.5</v>
       </c>
       <c r="Y27">
         <f t="shared" si="4"/>
-        <v>3487.8191021122566</v>
+        <v>3495.0191371393653</v>
       </c>
       <c r="AC27">
         <v>12.5</v>
       </c>
       <c r="AD27">
         <f t="shared" si="5"/>
-        <v>2155.9464351053825</v>
+        <v>2156.3405561787122</v>
       </c>
     </row>
     <row r="28" spans="17:30" x14ac:dyDescent="0.25">
@@ -21811,21 +23705,21 @@
       </c>
       <c r="T28">
         <f t="shared" si="3"/>
-        <v>4772.3297787721303</v>
+        <v>4800.0675520048471</v>
       </c>
       <c r="X28">
         <v>13</v>
       </c>
       <c r="Y28">
         <f t="shared" si="4"/>
-        <v>3491.2764888909851</v>
+        <v>3497.1375044617075</v>
       </c>
       <c r="AC28">
         <v>13</v>
       </c>
       <c r="AD28">
         <f t="shared" si="5"/>
-        <v>2156.0924044694589</v>
+        <v>2156.36778005521</v>
       </c>
     </row>
     <row r="29" spans="17:30" x14ac:dyDescent="0.25">
@@ -21838,21 +23732,21 @@
       </c>
       <c r="T29">
         <f t="shared" si="3"/>
-        <v>4785.0532021733634</v>
+        <v>4809.1414242232149</v>
       </c>
       <c r="X29">
         <v>13.5</v>
       </c>
       <c r="Y29">
         <f t="shared" si="4"/>
-        <v>3494.003015443303</v>
+        <v>3498.7657250685252</v>
       </c>
       <c r="AC29">
         <v>13.5</v>
       </c>
       <c r="AD29">
         <f t="shared" si="5"/>
-        <v>2156.192909394957</v>
+        <v>2156.3850600410883</v>
       </c>
     </row>
     <row r="30" spans="17:30" x14ac:dyDescent="0.25">
@@ -21865,21 +23759,21 @@
       </c>
       <c r="T30">
         <f t="shared" si="3"/>
-        <v>4795.7429946334387</v>
+        <v>4816.627849418981</v>
       </c>
       <c r="X30">
         <v>14</v>
       </c>
       <c r="Y30">
         <f t="shared" si="4"/>
-        <v>3496.1531789963747</v>
+        <v>3500.0172088487479</v>
       </c>
       <c r="AC30">
         <v>14</v>
       </c>
       <c r="AD30">
         <f t="shared" si="5"/>
-        <v>2156.262110491457</v>
+        <v>2156.3960282774437</v>
       </c>
     </row>
     <row r="31" spans="17:30" x14ac:dyDescent="0.25">
@@ -21892,21 +23786,21 @@
       </c>
       <c r="T31">
         <f t="shared" si="3"/>
-        <v>4804.7241987666284</v>
+        <v>4822.8045467388265</v>
       </c>
       <c r="X31">
         <v>14.5</v>
       </c>
       <c r="Y31">
         <f t="shared" si="4"/>
-        <v>3497.8488174639429</v>
+        <v>3500.9791249709265</v>
       </c>
       <c r="AC31">
         <v>14.5</v>
       </c>
       <c r="AD31">
         <f t="shared" si="5"/>
-        <v>2156.309757825486</v>
+        <v>2156.4029902165103</v>
       </c>
     </row>
     <row r="32" spans="17:30" x14ac:dyDescent="0.25">
@@ -21915,21 +23809,21 @@
       </c>
       <c r="T32">
         <f t="shared" si="3"/>
-        <v>4812.2699044464416</v>
+        <v>4827.9006491887058</v>
       </c>
       <c r="X32">
         <v>15</v>
       </c>
       <c r="Y32">
         <f t="shared" si="4"/>
-        <v>3499.1860133291552</v>
+        <v>3501.7184734472944</v>
       </c>
       <c r="AC32">
         <v>15</v>
       </c>
       <c r="AD32">
         <f t="shared" si="5"/>
-        <v>2156.3425646530491</v>
+        <v>2156.4074092127821</v>
       </c>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.25">
@@ -21938,21 +23832,21 @@
       </c>
       <c r="T33">
         <f t="shared" si="3"/>
-        <v>4818.609552600743</v>
+        <v>4832.1052036350147</v>
       </c>
       <c r="X33">
         <v>15.5</v>
       </c>
       <c r="Y33">
         <f t="shared" si="4"/>
-        <v>3500.2405381091371</v>
+        <v>3502.2867518625362</v>
       </c>
       <c r="AC33">
         <v>15.5</v>
       </c>
       <c r="AD33">
         <f t="shared" si="5"/>
-        <v>2156.3651532817039</v>
+        <v>2156.4102141106509</v>
       </c>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.25">
@@ -22091,14 +23985,32 @@
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="2"/>
+      <c r="Y46">
+        <v>15</v>
+      </c>
+      <c r="Z46">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="47" spans="2:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E47" s="3"/>
       <c r="F47" s="2"/>
+      <c r="Y47">
+        <v>11</v>
+      </c>
+      <c r="Z47">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="48" spans="2:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E48" s="3"/>
       <c r="F48" s="2"/>
+      <c r="Y48">
+        <v>7</v>
+      </c>
+      <c r="Z48">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="2"/>
@@ -22134,8 +24046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DB164B-1902-4DDC-89FD-D137B251E169}">
   <dimension ref="A1:AD121"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22234,21 +24146,21 @@
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T33" si="3">(1-EXP(-(S3+$R$6)/$R$8))*$R$7</f>
-        <v>-1365.106089308639</v>
+        <v>-2071.8871527598776</v>
       </c>
       <c r="X3">
         <v>0.5</v>
       </c>
       <c r="Y3">
         <f>(1-EXP(-(X3+$W$6)/$W$8))*$W$7</f>
-        <v>-1408.3531902184727</v>
+        <v>-2123.385103225261</v>
       </c>
       <c r="AC3">
         <v>0.5</v>
       </c>
       <c r="AD3">
         <f>(1-EXP(-(AC3+$AB$6)/$AB$8))*$AB$7</f>
-        <v>-1507.7802701516878</v>
+        <v>-2227.5711002616458</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -22281,21 +24193,21 @@
       </c>
       <c r="T4">
         <f t="shared" si="3"/>
-        <v>-356.69220723673391</v>
+        <v>-519.96933367033262</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
         <f t="shared" ref="Y4:Y33" si="4">(1-EXP(-(X4+$W$6)/$W$8))*$W$7</f>
-        <v>-355.82726010999909</v>
+        <v>-509.29131141672116</v>
       </c>
       <c r="AC4">
         <v>1</v>
       </c>
       <c r="AD4">
         <f t="shared" ref="AD4:AD33" si="5">(1-EXP(-(AC4+$AB$6)/$AB$8))*$AB$7</f>
-        <v>-353.75908292128179</v>
+        <v>-486.49969757064815</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -22331,7 +24243,7 @@
       </c>
       <c r="T5">
         <f t="shared" si="3"/>
-        <v>490.54322408296656</v>
+        <v>688.66547909907126</v>
       </c>
       <c r="V5" t="s">
         <v>12</v>
@@ -22341,7 +24253,7 @@
       </c>
       <c r="Y5">
         <f t="shared" si="4"/>
-        <v>474.20422872989559</v>
+        <v>647.25742861686922</v>
       </c>
       <c r="AA5" t="s">
         <v>13</v>
@@ -22351,7 +24263,7 @@
       </c>
       <c r="AD5">
         <f t="shared" si="5"/>
-        <v>440.824178986101</v>
+        <v>569.51348891032251</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -22390,7 +24302,7 @@
       </c>
       <c r="T6">
         <f t="shared" si="3"/>
-        <v>1202.3619414221778</v>
+        <v>1629.9512177312442</v>
       </c>
       <c r="V6" t="s">
         <v>10</v>
@@ -22403,7 +24315,7 @@
       </c>
       <c r="Y6">
         <f t="shared" si="4"/>
-        <v>1128.7745844405324</v>
+        <v>1475.9608130556019</v>
       </c>
       <c r="AA6" t="s">
         <v>10</v>
@@ -22416,7 +24328,7 @@
       </c>
       <c r="AD6">
         <f t="shared" si="5"/>
-        <v>987.92207206605008</v>
+        <v>1210.017863571866</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -22456,7 +24368,7 @@
       </c>
       <c r="T7">
         <f t="shared" si="3"/>
-        <v>1800.4080896636397</v>
+        <v>2363.0252880719268</v>
       </c>
       <c r="V7" t="s">
         <v>9</v>
@@ -22470,7 +24382,7 @@
       </c>
       <c r="Y7">
         <f t="shared" si="4"/>
-        <v>1644.9747001421622</v>
+        <v>2069.7527351844224</v>
       </c>
       <c r="AA7" t="s">
         <v>9</v>
@@ -22484,7 +24396,7 @@
       </c>
       <c r="AD7">
         <f t="shared" si="5"/>
-        <v>1364.6177803219935</v>
+        <v>1598.5034044841595</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -22516,40 +24428,40 @@
         <v>8</v>
       </c>
       <c r="R8">
-        <v>2.871</v>
+        <v>2</v>
       </c>
       <c r="S8">
         <v>3</v>
       </c>
       <c r="T8">
         <f t="shared" si="3"/>
-        <v>2302.8663514572941</v>
+        <v>2933.943948102592</v>
       </c>
       <c r="V8" t="s">
         <v>8</v>
       </c>
       <c r="W8">
-        <v>2.1053999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X8">
         <v>3</v>
       </c>
       <c r="Y8">
         <f t="shared" si="4"/>
-        <v>2052.0547903504785</v>
+        <v>2495.2232393555146</v>
       </c>
       <c r="AA8" t="s">
         <v>8</v>
       </c>
       <c r="AB8">
-        <v>1.3397999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>3</v>
       </c>
       <c r="AD8">
         <f t="shared" si="5"/>
-        <v>1623.9857260101164</v>
+        <v>1834.1317959025121</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -22582,21 +24494,21 @@
       </c>
       <c r="T9">
         <f t="shared" si="3"/>
-        <v>2725.0148856248738</v>
+        <v>3378.5758476045512</v>
       </c>
       <c r="X9">
         <v>3.5</v>
       </c>
       <c r="Y9">
         <f t="shared" si="4"/>
-        <v>2373.0818393637646</v>
+        <v>2800.0861773197189</v>
       </c>
       <c r="AC9">
         <v>3.5</v>
       </c>
       <c r="AD9">
         <f t="shared" si="5"/>
-        <v>1802.5694735179848</v>
+        <v>1977.047639596512</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -22629,21 +24541,21 @@
       </c>
       <c r="T10">
         <f t="shared" si="3"/>
-        <v>3079.6898874124295</v>
+        <v>3724.8555191152036</v>
       </c>
       <c r="X10">
         <v>4</v>
       </c>
       <c r="Y10">
         <f t="shared" si="4"/>
-        <v>2626.2466800845195</v>
+        <v>3018.5300178045859</v>
       </c>
       <c r="AC10">
         <v>4</v>
       </c>
       <c r="AD10">
         <f t="shared" si="5"/>
-        <v>1925.5305232704586</v>
+        <v>2063.7304805556219</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -22676,21 +24588,21 @@
       </c>
       <c r="T11">
         <f t="shared" si="3"/>
-        <v>3377.6758963915963</v>
+        <v>3994.5383984494083</v>
       </c>
       <c r="X11">
         <v>4.5</v>
       </c>
       <c r="Y11">
         <f t="shared" si="4"/>
-        <v>2825.8947682258795</v>
+        <v>3175.0518691139791</v>
       </c>
       <c r="AC11">
         <v>4.5</v>
       </c>
       <c r="AD11">
         <f t="shared" si="5"/>
-        <v>2010.1934333461033</v>
+        <v>2116.3062812683156</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -22723,21 +24635,21 @@
       </c>
       <c r="T12">
         <f t="shared" si="3"/>
-        <v>3628.0337200324038</v>
+        <v>4204.5676360558382</v>
       </c>
       <c r="X12">
         <v>5</v>
       </c>
       <c r="Y12">
         <f t="shared" si="4"/>
-        <v>2983.339060193995</v>
+        <v>3287.2046763661347</v>
       </c>
       <c r="AC12">
         <v>5</v>
       </c>
       <c r="AD12">
         <f t="shared" si="5"/>
-        <v>2068.4867575890717</v>
+        <v>2148.1951163595058</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -22746,21 +24658,21 @@
       </c>
       <c r="T13">
         <f t="shared" si="3"/>
-        <v>3838.3759440612639</v>
+        <v>4368.1385707716154</v>
       </c>
       <c r="X13">
         <v>5.5</v>
       </c>
       <c r="Y13">
         <f t="shared" si="4"/>
-        <v>3107.5010559542043</v>
+        <v>3367.565674331051</v>
       </c>
       <c r="AC13">
         <v>5.5</v>
       </c>
       <c r="AD13">
         <f t="shared" si="5"/>
-        <v>2108.6237154169994</v>
+        <v>2167.536672544833</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -22769,21 +24681,21 @@
       </c>
       <c r="T14">
         <f t="shared" si="3"/>
-        <v>4015.0984069984897</v>
+        <v>4495.5277428159852</v>
       </c>
       <c r="X14">
         <v>6</v>
       </c>
       <c r="Y14">
         <f t="shared" si="4"/>
-        <v>3205.4163312458613</v>
+        <v>3425.1468455218705</v>
       </c>
       <c r="AC14">
         <v>6</v>
       </c>
       <c r="AD14">
         <f t="shared" si="5"/>
-        <v>2136.2593907640821</v>
+        <v>2179.2679193777881</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -22804,21 +24716,21 @@
       </c>
       <c r="T15">
         <f t="shared" si="3"/>
-        <v>4163.5746772803623</v>
+        <v>4594.7385297589581</v>
       </c>
       <c r="X15">
         <v>6.5</v>
       </c>
       <c r="Y15">
         <f t="shared" si="4"/>
-        <v>3282.6332048692284</v>
+        <v>3466.4055575796024</v>
       </c>
       <c r="AC15">
         <v>6.5</v>
       </c>
       <c r="AD15">
         <f t="shared" si="5"/>
-        <v>2155.2875033371265</v>
+        <v>2186.3832802586321</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -22839,21 +24751,21 @@
       </c>
       <c r="T16">
         <f t="shared" si="3"/>
-        <v>4288.3194463969312</v>
+        <v>4672.0039683192754</v>
       </c>
       <c r="X16">
         <v>7</v>
       </c>
       <c r="Y16">
         <f t="shared" si="4"/>
-        <v>3343.5271313215294</v>
+        <v>3495.9687166029148</v>
       </c>
       <c r="AC16">
         <v>7</v>
       </c>
       <c r="AD16">
         <f t="shared" si="5"/>
-        <v>2168.3890130178247</v>
+        <v>2190.698964787784</v>
       </c>
     </row>
     <row r="17" spans="17:30" x14ac:dyDescent="0.25">
@@ -22862,21 +24774,21 @@
       </c>
       <c r="T17">
         <f t="shared" si="3"/>
-        <v>4393.1258063115756</v>
+        <v>4732.1783523744061</v>
       </c>
       <c r="X17">
         <v>7.5</v>
       </c>
       <c r="Y17">
         <f t="shared" si="4"/>
-        <v>3391.548633679482</v>
+        <v>3517.1516456825907</v>
       </c>
       <c r="AC17">
         <v>7.5</v>
       </c>
       <c r="AD17">
         <f t="shared" si="5"/>
-        <v>2177.4098528543832</v>
+        <v>2193.3165597723623</v>
       </c>
     </row>
     <row r="18" spans="17:30" x14ac:dyDescent="0.25">
@@ -22885,21 +24797,21 @@
       </c>
       <c r="T18">
         <f t="shared" si="3"/>
-        <v>4481.1805853323594</v>
+        <v>4779.0422097973815</v>
       </c>
       <c r="X18">
         <v>8</v>
       </c>
       <c r="Y18">
         <f t="shared" si="4"/>
-        <v>3429.4188257177843</v>
+        <v>3532.3298776178422</v>
       </c>
       <c r="AC18">
         <v>8</v>
       </c>
       <c r="AD18">
         <f t="shared" si="5"/>
-        <v>2183.6210112124713</v>
+        <v>2194.9042113852188</v>
       </c>
     </row>
     <row r="19" spans="17:30" x14ac:dyDescent="0.25">
@@ -22911,21 +24823,21 @@
       </c>
       <c r="T19">
         <f t="shared" si="3"/>
-        <v>4555.1612494324545</v>
+        <v>4815.5398186561415</v>
       </c>
       <c r="X19">
         <v>8.5</v>
       </c>
       <c r="Y19">
         <f t="shared" si="4"/>
-        <v>3459.2836024240114</v>
+        <v>3543.2055560386016</v>
       </c>
       <c r="AC19">
         <v>8.5</v>
       </c>
       <c r="AD19">
         <f t="shared" si="5"/>
-        <v>2187.8976072776072</v>
+        <v>2195.8671707653584</v>
       </c>
     </row>
     <row r="20" spans="17:30" x14ac:dyDescent="0.25">
@@ -22937,21 +24849,21 @@
       </c>
       <c r="T20">
         <f t="shared" si="3"/>
-        <v>4617.3173154808319</v>
+        <v>4843.9641850155776</v>
       </c>
       <c r="X20">
         <v>9</v>
       </c>
       <c r="Y20">
         <f t="shared" si="4"/>
-        <v>3482.8352360362942</v>
+        <v>3550.9983201508066</v>
       </c>
       <c r="AC20">
         <v>9</v>
       </c>
       <c r="AD20">
         <f t="shared" si="5"/>
-        <v>2190.8421906950493</v>
+        <v>2196.4512351534713</v>
       </c>
     </row>
     <row r="21" spans="17:30" x14ac:dyDescent="0.25">
@@ -22963,21 +24875,21 @@
       </c>
       <c r="T21">
         <f t="shared" si="3"/>
-        <v>4669.5387519008018</v>
+        <v>4866.1011037946146</v>
       </c>
       <c r="X21">
         <v>9.5</v>
       </c>
       <c r="Y21">
         <f t="shared" si="4"/>
-        <v>3501.4082677807942</v>
+        <v>3556.5820796331172</v>
       </c>
       <c r="AC21">
         <v>9.5</v>
       </c>
       <c r="AD21">
         <f t="shared" si="5"/>
-        <v>2192.8696376108246</v>
+        <v>2196.8054881121079</v>
       </c>
     </row>
     <row r="22" spans="17:30" x14ac:dyDescent="0.25">
@@ -22989,21 +24901,21 @@
       </c>
       <c r="T22">
         <f t="shared" si="3"/>
-        <v>4713.4134466030428</v>
+        <v>4883.3413534745168</v>
       </c>
       <c r="X22">
         <v>10</v>
       </c>
       <c r="Y22">
         <f t="shared" si="4"/>
-        <v>3516.055128965078</v>
+        <v>3560.5830181329065</v>
       </c>
       <c r="AC22">
         <v>10</v>
       </c>
       <c r="AD22">
         <f>(1-EXP(-(AC22+$AB$6)/$AB$8))*$AB$7</f>
-        <v>2194.265604514645</v>
+        <v>2197.0203533928147</v>
       </c>
     </row>
     <row r="23" spans="17:30" x14ac:dyDescent="0.25">
@@ -23015,21 +24927,21 @@
       </c>
       <c r="T23">
         <f t="shared" si="3"/>
-        <v>4750.2754896103243</v>
+        <v>4896.7680734255719</v>
       </c>
       <c r="X23">
         <v>10.5</v>
       </c>
       <c r="Y23">
         <f t="shared" si="4"/>
-        <v>3527.6057764577909</v>
+        <v>3563.4498158396859</v>
       </c>
       <c r="AC23">
         <v>10.5</v>
       </c>
       <c r="AD23">
         <f>(1-EXP(-(AC23+$AB$6)/$AB$8))*$AB$7</f>
-        <v>2195.2267757203608</v>
+        <v>2197.1506757732714</v>
       </c>
     </row>
     <row r="24" spans="17:30" x14ac:dyDescent="0.25">
@@ -23038,21 +24950,21 @@
       </c>
       <c r="T24">
         <f t="shared" si="3"/>
-        <v>4781.2457384950694</v>
+        <v>4907.2248134375332</v>
       </c>
       <c r="X24">
         <v>11</v>
       </c>
       <c r="Y24">
         <f t="shared" si="4"/>
-        <v>3536.7147217684806</v>
+        <v>3565.5039661576739</v>
       </c>
       <c r="AC24">
         <v>11</v>
       </c>
       <c r="AD24">
         <f>(1-EXP(-(AC24+$AB$6)/$AB$8))*$AB$7</f>
-        <v>2195.8885751399384</v>
+        <v>2197.2297202926648</v>
       </c>
     </row>
     <row r="25" spans="17:30" x14ac:dyDescent="0.25">
@@ -23061,21 +24973,21 @@
       </c>
       <c r="T25">
         <f t="shared" si="3"/>
-        <v>4807.2659000958147</v>
+        <v>4915.3685307472224</v>
       </c>
       <c r="X25">
         <v>11.5</v>
       </c>
       <c r="Y25">
         <f t="shared" si="4"/>
-        <v>3543.8981186062329</v>
+        <v>3566.9758291771373</v>
       </c>
       <c r="AC25">
         <v>11.5</v>
       </c>
       <c r="AD25">
         <f>(1-EXP(-(AC25+$AB$6)/$AB$8))*$AB$7</f>
-        <v>2196.3442467925524</v>
+        <v>2197.2776632171594</v>
       </c>
     </row>
     <row r="26" spans="17:30" x14ac:dyDescent="0.25">
@@ -23088,21 +25000,21 @@
       </c>
       <c r="T26">
         <f t="shared" si="3"/>
-        <v>4829.1271648292204</v>
+        <v>4921.7108641651212</v>
       </c>
       <c r="X26">
         <v>12</v>
       </c>
       <c r="Y26">
         <f t="shared" si="4"/>
-        <v>3549.5630104645761</v>
+        <v>3568.0304651154588</v>
       </c>
       <c r="AC26">
         <v>12</v>
       </c>
       <c r="AD26">
         <f>(1-EXP(-(AC26+$AB$6)/$AB$8))*$AB$7</f>
-        <v>2196.6579923910722</v>
+        <v>2197.3067420707816</v>
       </c>
     </row>
     <row r="27" spans="17:30" x14ac:dyDescent="0.25">
@@ -23115,21 +25027,21 @@
       </c>
       <c r="T27">
         <f t="shared" si="3"/>
-        <v>4847.4942642760734</v>
+        <v>4926.6502783974811</v>
       </c>
       <c r="X27">
         <v>12.5</v>
       </c>
       <c r="Y27">
         <f t="shared" si="4"/>
-        <v>3554.0303955320524</v>
+        <v>3568.786144786523</v>
       </c>
       <c r="AC27">
         <v>12.5</v>
       </c>
       <c r="AD27">
         <f t="shared" si="5"/>
-        <v>2196.8740170220235</v>
+        <v>2197.324379287053</v>
       </c>
     </row>
     <row r="28" spans="17:30" x14ac:dyDescent="0.25">
@@ -23142,21 +25054,21 @@
       </c>
       <c r="T28">
         <f t="shared" si="3"/>
-        <v>4862.9256835559963</v>
+        <v>4930.4970980695562</v>
       </c>
       <c r="X28">
         <v>13</v>
       </c>
       <c r="Y28">
         <f t="shared" si="4"/>
-        <v>3557.5534158897512</v>
+        <v>3569.3276129316041</v>
       </c>
       <c r="AC28">
         <v>13</v>
       </c>
       <c r="AD28">
         <f t="shared" si="5"/>
-        <v>2197.0227574072196</v>
+        <v>2197.3350767994734</v>
       </c>
     </row>
     <row r="29" spans="17:30" x14ac:dyDescent="0.25">
@@ -23169,21 +25081,21 @@
       </c>
       <c r="T29">
         <f t="shared" si="3"/>
-        <v>4875.8906430849529</v>
+        <v>4933.493004242503</v>
       </c>
       <c r="X29">
         <v>13.5</v>
       </c>
       <c r="Y29">
         <f t="shared" si="4"/>
-        <v>3560.331701677364</v>
+        <v>3569.715591811233</v>
       </c>
       <c r="AC29">
         <v>13.5</v>
       </c>
       <c r="AD29">
         <f t="shared" si="5"/>
-        <v>2197.1251702760251</v>
+        <v>2197.3415651687387</v>
       </c>
     </row>
     <row r="30" spans="17:30" x14ac:dyDescent="0.25">
@@ -23196,21 +25108,21 @@
       </c>
       <c r="T30">
         <f t="shared" si="3"/>
-        <v>4886.7833660768156</v>
+        <v>4935.8262183160023</v>
       </c>
       <c r="X30">
         <v>14</v>
       </c>
       <c r="Y30">
         <f t="shared" si="4"/>
-        <v>3562.5226830325473</v>
+        <v>3569.9935908263287</v>
       </c>
       <c r="AC30">
         <v>14</v>
       </c>
       <c r="AD30">
         <f t="shared" si="5"/>
-        <v>2197.1956850570859</v>
+        <v>2197.3455005636301</v>
       </c>
     </row>
     <row r="31" spans="17:30" x14ac:dyDescent="0.25">
@@ -23223,21 +25135,21 @@
       </c>
       <c r="T31">
         <f t="shared" si="3"/>
-        <v>4895.9350656183724</v>
+        <v>4937.6433272635177</v>
       </c>
       <c r="X31">
         <v>14.5</v>
       </c>
       <c r="Y31">
         <f t="shared" si="4"/>
-        <v>3564.2505107888442</v>
+        <v>3570.1927858249533</v>
       </c>
       <c r="AC31">
         <v>14.5</v>
       </c>
       <c r="AD31">
         <f t="shared" si="5"/>
-        <v>2197.2442369080986</v>
+        <v>2197.3478875012897</v>
       </c>
     </row>
     <row r="32" spans="17:30" x14ac:dyDescent="0.25">
@@ -23246,21 +25158,21 @@
       </c>
       <c r="T32">
         <f t="shared" si="3"/>
-        <v>4903.6240158066303</v>
+        <v>4939.0584931347676</v>
       </c>
       <c r="X32">
         <v>15</v>
       </c>
       <c r="Y32">
         <f t="shared" si="4"/>
-        <v>3565.6130914189193</v>
+        <v>3570.335515278377</v>
       </c>
       <c r="AC32">
         <v>15</v>
       </c>
       <c r="AD32">
         <f t="shared" si="5"/>
-        <v>2197.277666526702</v>
+        <v>2197.3493352521627</v>
       </c>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.25">
@@ -23269,21 +25181,21 @@
       </c>
       <c r="T33">
         <f t="shared" si="3"/>
-        <v>4910.0840131796931</v>
+        <v>4940.1606254234739</v>
       </c>
       <c r="X33">
         <v>15.5</v>
       </c>
       <c r="Y33">
         <f t="shared" si="4"/>
-        <v>3566.6876348545661</v>
+        <v>3570.4377854006971</v>
       </c>
       <c r="AC33">
         <v>15.5</v>
       </c>
       <c r="AD33">
         <f t="shared" si="5"/>
-        <v>2197.3006839683985</v>
+        <v>2197.3502133574552</v>
       </c>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.25">
@@ -23455,31 +25367,55 @@
         <v>4680.1899999999996</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:21" x14ac:dyDescent="0.25">
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:21" x14ac:dyDescent="0.25">
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:21" x14ac:dyDescent="0.25">
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:21" x14ac:dyDescent="0.25">
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:21" x14ac:dyDescent="0.25">
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="5:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F56" s="3"/>
+    </row>
+    <row r="60" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="T60">
+        <v>15</v>
+      </c>
+      <c r="U60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="T61">
+        <v>11</v>
+      </c>
+      <c r="U61">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="62" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="T62">
+        <v>7</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J80">

--- a/mofset.xlsx
+++ b/mofset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_Projects\Kranke_Ballmaschine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04E6A02-3703-4986-BBD2-CE10727FDC73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9B75C1-69C2-41B9-B99B-6ABD0F9E057A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14895" windowHeight="11265" activeTab="2" xr2:uid="{4E607B8E-AB35-42A0-BCB5-F893136D0D9F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14895" windowHeight="11265" activeTab="1" xr2:uid="{4E607B8E-AB35-42A0-BCB5-F893136D0D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Motor C" sheetId="1" r:id="rId1"/>
@@ -18973,16 +18973,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>103909</xdr:rowOff>
+      <xdr:rowOff>115115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>542924</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>131772</xdr:rowOff>
+      <xdr:rowOff>142978</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19500,7 +19500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CD511A-6204-4BB8-AE8B-AD2A33E3DC9D}">
   <dimension ref="A1:AQ70"/>
   <sheetViews>
-    <sheetView topLeftCell="M39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q66" sqref="Q66:R70"/>
     </sheetView>
   </sheetViews>
@@ -22700,8 +22700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C63A95C-2799-4C3B-9E23-A269E3458E4D}">
   <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView topLeftCell="G28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z36" sqref="Z36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24046,8 +24046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DB164B-1902-4DDC-89FD-D137B251E169}">
   <dimension ref="A1:AD121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView topLeftCell="D22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/mofset.xlsx
+++ b/mofset.xlsx
@@ -8,15 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_Projects\Kranke_Ballmaschine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9B75C1-69C2-41B9-B99B-6ABD0F9E057A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9C4A80-6C26-4267-9A6F-6F5591740D61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14895" windowHeight="11265" activeTab="1" xr2:uid="{4E607B8E-AB35-42A0-BCB5-F893136D0D9F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14895" windowHeight="11265" activeTab="3" xr2:uid="{4E607B8E-AB35-42A0-BCB5-F893136D0D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Motor C" sheetId="1" r:id="rId1"/>
     <sheet name="Motor A" sheetId="2" r:id="rId2"/>
     <sheet name="Motor B" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Tabelle1!$B$4:$B$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Tabelle1!$D$4:$D$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Tabelle1!$E$4:$E$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Tabelle1!$M$17:$M$21</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Tabelle1!$O$17:$O$21</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Tabelle1!$C$11</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Tabelle1!$Q$22</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.99</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="28">
   <si>
     <t>pmw</t>
   </si>
@@ -82,12 +109,42 @@
   <si>
     <t>Drehzahl/rpm</t>
   </si>
+  <si>
+    <t xml:space="preserve">PMW </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>omega</t>
+  </si>
+  <si>
+    <t>Modell</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>traiuning set</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +169,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -143,6 +206,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3960,6 +4029,475 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2058263584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$M$17:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$P$17:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1449.4272412600446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2571.2050838809805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3250.8876877381826</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3662.7058075423288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3912.225455149277</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B0CB-43C1-9B23-E70380FFBAEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="919084511"/>
+        <c:axId val="919925199"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$4:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2173.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3450.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3863.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0CB-43C1-9B23-E70380FFBAEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$M$17:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$O$17:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1374.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2635.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3348.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3669.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3906.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B0CB-43C1-9B23-E70380FFBAEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="919084511"/>
+        <c:axId val="919925199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="919084511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="919925199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="919925199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="919084511"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10583,9 +11121,10 @@
       <c:valAx>
         <c:axId val="691202576"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
-          <c:min val="0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11126,6 +11665,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -14542,6 +15121,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -18896,16 +19991,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>146797</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>169209</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>32497</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>54909</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19193,6 +20288,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11E93B0-50B1-4C19-BD1D-410774B19D88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19500,8 +20636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CD511A-6204-4BB8-AE8B-AD2A33E3DC9D}">
   <dimension ref="A1:AQ70"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q66" sqref="Q66:R70"/>
+    <sheetView topLeftCell="J39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L71" sqref="L70:W71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22700,8 +23836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C63A95C-2799-4C3B-9E23-A269E3458E4D}">
   <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView topLeftCell="H36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X51" sqref="X51:Y51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24046,8 +25182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DB164B-1902-4DDC-89FD-D137B251E169}">
   <dimension ref="A1:AD121"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U53" sqref="U53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24145,7 +25281,7 @@
         <v>0.5</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T33" si="3">(1-EXP(-(S3+$R$6)/$R$8))*$R$7</f>
+        <f>(1-EXP(-(S3+$R$6)/$R$8))*$R$7</f>
         <v>-2071.8871527598776</v>
       </c>
       <c r="X3">
@@ -24192,7 +25328,7 @@
         <v>1</v>
       </c>
       <c r="T4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="T4:T33" si="3">(1-EXP(-(S4+$R$6)/$R$8))*$R$7</f>
         <v>-519.96933367033262</v>
       </c>
       <c r="X4">
@@ -25803,4 +26939,283 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FCB65A-2322-4345-9D3D-F7715253160A}">
+  <dimension ref="B2:Q31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>81</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4295.84</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2173.91</v>
+      </c>
+      <c r="E4">
+        <f>$C$9*(1-EXP(-(B4-$C$11)/$C$10))</f>
+        <v>2109.2306964361219</v>
+      </c>
+      <c r="F4">
+        <f>(D4-E4)^2</f>
+        <v>4183.4123095082768</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>138</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4295.84</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3450.26</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="0">$C$9*(1-EXP(-(B5-$C$11)/$C$10))</f>
+        <v>3264.5753360015169</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F6" si="1">(D5-E5)^2</f>
+        <v>34478.794444229643</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>195</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4295.84</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3863.49</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3809.4674205554088</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2918.4390898471434</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F4:F6)</f>
+        <v>41580.645843585065</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4295.84</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4">
+        <v>75.841622203772317</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>29.784529326113038</v>
+      </c>
+      <c r="D11">
+        <f>1.2/13*255</f>
+        <v>23.538461538461537</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M17" s="4">
+        <v>61</v>
+      </c>
+      <c r="N17" s="4">
+        <v>4301.32</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1374.26</v>
+      </c>
+      <c r="P17">
+        <f>$C$9*(1-EXP(-(M17-$C$11)/$C$10))</f>
+        <v>1449.4272412600446</v>
+      </c>
+      <c r="Q17">
+        <f>(O17-P17)^2</f>
+        <v>5650.1141586457588</v>
+      </c>
+    </row>
+    <row r="18" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M18" s="4">
+        <v>99</v>
+      </c>
+      <c r="N18" s="4">
+        <v>4301.32</v>
+      </c>
+      <c r="O18" s="4">
+        <v>2635.05</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:P21" si="2">$C$9*(1-EXP(-(M18-$C$11)/$C$10))</f>
+        <v>2571.2050838809805</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ref="Q18:Q21" si="3">(O18-P18)^2</f>
+        <v>4076.1733142446578</v>
+      </c>
+    </row>
+    <row r="19" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M19" s="4">
+        <v>137</v>
+      </c>
+      <c r="N19" s="4">
+        <v>4301.32</v>
+      </c>
+      <c r="O19" s="4">
+        <v>3348.21</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>3250.8876877381826</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>9471.6324639866907</v>
+      </c>
+    </row>
+    <row r="20" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M20" s="4">
+        <v>175</v>
+      </c>
+      <c r="N20" s="4">
+        <v>4301.32</v>
+      </c>
+      <c r="O20" s="4">
+        <v>3669.72</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>3662.7058075423288</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="3"/>
+        <v>49.198895833248955</v>
+      </c>
+    </row>
+    <row r="21" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M21" s="4">
+        <v>213</v>
+      </c>
+      <c r="N21" s="4">
+        <v>4301.32</v>
+      </c>
+      <c r="O21" s="4">
+        <v>3906.25</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>3912.225455149277</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="3"/>
+        <v>35.706064241020627</v>
+      </c>
+    </row>
+    <row r="22" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <f>SUM(Q17:Q21)</f>
+        <v>19282.824896951377</v>
+      </c>
+    </row>
+    <row r="23" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M31" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="M16:P16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>